--- a/Template/TalentTemplate.xlsx
+++ b/Template/TalentTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Talent\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="0E7660841F634BA76C23A421553A7AF43CEAAA2E" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{A4AFCBC8-B25F-491C-845B-AD124384BF0F}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="0E7660841F634BA76C23A421553A7AF43CEAAA2E" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{9BDD926B-C9B0-4F74-AFD8-C67C0A9AB057}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" firstSheet="2" activeTab="3" xr2:uid="{38E20AC2-159A-4C6D-8820-95C28B0D8BDF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" firstSheet="3" xr2:uid="{38E20AC2-159A-4C6D-8820-95C28B0D8BDF}"/>
   </bookViews>
   <sheets>
     <sheet name="聯繫狀況" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,9 @@
   <si>
     <t>性別</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年次</t>
   </si>
   <si>
     <t>e-mail</t>
@@ -722,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F152C1-3CB9-4704-95D6-F80DDA0A0C46}">
   <dimension ref="B2:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{B47C6826-7C28-58FF-910F-712BEA3D9C2B}">
-      <selection activeCell="J10" sqref="J10:K10"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{B47C6826-7C28-58FF-910F-712BEA3D9C2B}">
+      <selection activeCell="J6" sqref="J6:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -760,7 +763,7 @@
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
     </row>
-    <row r="5" spans="2:11" ht="17.25" thickTop="1">
+    <row r="5" spans="2:11">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -768,17 +771,19 @@
       <c r="J5" s="7"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="2:11" ht="17.25" thickBot="1">
+    <row r="6" spans="2:11">
       <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="2:11" ht="17.25" thickTop="1">
+      <c r="I6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="2:11">
       <c r="B7" s="7"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -786,12 +791,12 @@
     </row>
     <row r="8" spans="2:11" ht="17.25" thickBot="1">
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="I8" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
@@ -804,12 +809,12 @@
     </row>
     <row r="10" spans="2:11" ht="17.25" thickBot="1">
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="I10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
@@ -817,14 +822,14 @@
     <row r="11" spans="2:11" ht="17.25" thickTop="1"/>
     <row r="12" spans="2:11">
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -846,7 +851,7 @@
       <c r="K13" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="E13:K13"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:K12"/>
@@ -860,6 +865,7 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -892,12 +898,12 @@
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
@@ -917,12 +923,12 @@
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
@@ -935,17 +941,17 @@
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
@@ -958,7 +964,7 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -977,17 +983,17 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
@@ -995,22 +1001,22 @@
     <row r="11" spans="2:13" ht="17.25" thickTop="1"/>
     <row r="12" spans="2:13">
       <c r="C12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
@@ -1020,11 +1026,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B2:C7"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F6:G6"/>
     <mergeCell ref="H12:M12"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="I6:J6"/>
@@ -1034,6 +1035,11 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L4:M4"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B2:C7"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1059,7 +1065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1017C659-C766-476F-86FE-BFE678511C62}">
   <dimension ref="B2:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{E47D5F2F-E578-5C3B-9A45-13994136E1FC}">
+    <sheetView workbookViewId="0" xr3:uid="{E47D5F2F-E578-5C3B-9A45-13994136E1FC}">
       <selection activeCell="B9" sqref="B9:C10"/>
     </sheetView>
   </sheetViews>
@@ -1067,7 +1073,7 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="20"/>
     </row>
@@ -1077,22 +1083,22 @@
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="20"/>
     </row>

--- a/Template/TalentTemplate.xlsx
+++ b/Template/TalentTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19017"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Talent\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="0E7660841F634BA76C23A421553A7AF43CEAAA2E" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{9BDD926B-C9B0-4F74-AFD8-C67C0A9AB057}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="0E7660841F634BA76C23A421553A7AF43CEAAA2E" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{A75B6624-A69B-4CE4-9898-3D1B900B0AFF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" firstSheet="3" xr2:uid="{38E20AC2-159A-4C6D-8820-95C28B0D8BDF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" firstSheet="3" activeTab="3" xr2:uid="{38E20AC2-159A-4C6D-8820-95C28B0D8BDF}"/>
   </bookViews>
   <sheets>
     <sheet name="聯繫狀況" sheetId="3" r:id="rId1"/>
@@ -161,7 +161,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -195,7 +195,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -289,57 +289,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -395,18 +351,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -427,7 +371,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -725,13 +669,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F152C1-3CB9-4704-95D6-F80DDA0A0C46}">
   <dimension ref="B2:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{B47C6826-7C28-58FF-910F-712BEA3D9C2B}">
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6:K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:11" ht="17.25" thickBot="1">
+    <row r="2" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -743,7 +687,7 @@
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
     </row>
-    <row r="3" spans="2:11" ht="17.25" thickTop="1">
+    <row r="3" spans="2:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -751,7 +695,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="2:11" ht="17.25" thickBot="1">
+    <row r="4" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
@@ -763,7 +707,7 @@
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -771,7 +715,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
@@ -783,13 +727,13 @@
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="2:11" ht="17.25" thickBot="1">
+    <row r="8" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
@@ -801,13 +745,13 @@
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="2:11" ht="17.25" thickTop="1">
+    <row r="9" spans="2:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="2:11" ht="17.25" thickBot="1">
+    <row r="10" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
@@ -819,8 +763,8 @@
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="2:11" ht="17.25" thickTop="1"/>
-    <row r="12" spans="2:11">
+    <row r="11" spans="2:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
@@ -838,7 +782,7 @@
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -876,11 +820,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C50D9C-7F57-410A-8CE6-4BDA655AB358}">
   <dimension ref="B1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{D98C0DED-E3CE-5ED6-918C-639ED77930ED}">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
@@ -893,8 +837,8 @@
     <col min="17" max="17" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="17.25" thickBot="1"/>
-    <row r="2" spans="2:13" ht="17.25" thickBot="1">
+    <row r="1" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
       <c r="E2" t="s">
@@ -909,12 +853,12 @@
       <c r="J2" s="12"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="2:13" ht="17.25" thickTop="1">
+    <row r="3" spans="2:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="15"/>
       <c r="C3" s="16"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" ht="17.25" thickBot="1">
+    <row r="4" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="15"/>
       <c r="C4" s="16"/>
       <c r="E4" t="s">
@@ -933,11 +877,11 @@
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="2:13" ht="17.25" thickTop="1">
+    <row r="5" spans="2:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="15"/>
       <c r="C5" s="16"/>
     </row>
-    <row r="6" spans="2:13" ht="17.25" thickBot="1">
+    <row r="6" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
       <c r="E6" t="s">
@@ -956,11 +900,11 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="2:13" ht="18" thickTop="1" thickBot="1">
+    <row r="7" spans="2:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="17"/>
       <c r="C7" s="18"/>
     </row>
-    <row r="8" spans="2:13" ht="17.25" thickBot="1">
+    <row r="8" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="E8" t="s">
@@ -975,11 +919,11 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="17.25" thickTop="1">
+    <row r="9" spans="2:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="2:13" ht="17.25" thickBot="1">
+    <row r="10" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="E10" t="s">
@@ -998,8 +942,8 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:13" ht="17.25" thickTop="1"/>
-    <row r="12" spans="2:13">
+    <row r="11" spans="2:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>23</v>
       </c>
@@ -1026,6 +970,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B2:C7"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="H12:M12"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="I6:J6"/>
@@ -1035,11 +984,6 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B2:C7"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1050,11 +994,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C5DA376-C34A-4B74-B754-35EE044F6B10}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{C6B97A00-7C12-5BF0-8969-5A51D2C0E199}">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1063,54 +1007,57 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1017C659-C766-476F-86FE-BFE678511C62}">
-  <dimension ref="B2:C10"/>
+  <dimension ref="B1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{E47D5F2F-E578-5C3B-9A45-13994136E1FC}">
-      <selection activeCell="B9" sqref="B9:C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" s="19" t="s">
+    <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="20"/>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-    </row>
-    <row r="5" spans="2:3">
+      <c r="C2" s="14"/>
+    </row>
+    <row r="3" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="19" t="s">
+    <row r="8" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="20"/>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
+      <c r="C9" s="14"/>
+    </row>
+    <row r="10" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="B9:C10"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>